--- a/docu/TestUploadFolder/admin/Man_Gal_7.xlsx
+++ b/docu/TestUploadFolder/admin/Man_Gal_7.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609FF210-001D-4015-9BA4-24628A45DE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2970" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="31350" yWindow="-105" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,17 +15,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -83,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,19 +626,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -670,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -684,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -698,7 +688,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -709,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -720,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -731,7 +721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>6</v>
       </c>
@@ -739,7 +729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -750,7 +740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -761,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -772,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -783,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -794,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -805,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -816,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -827,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -838,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -849,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>20</v>
       </c>
@@ -860,293 +850,293 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>22</v>
       </c>
       <c r="B20" s="13">
-        <v>1.5703208496080312E-2</v>
+        <v>7.851604248040156E-3</v>
       </c>
       <c r="C20" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>24</v>
       </c>
       <c r="B21" s="13">
-        <v>7.9141736584592948E-2</v>
+        <v>3.9570868292296474E-2</v>
       </c>
       <c r="C21" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>26</v>
       </c>
       <c r="B22" s="13">
-        <v>0.30720786066021677</v>
+        <v>0.15360393033010838</v>
       </c>
       <c r="C22" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>28</v>
       </c>
       <c r="B23" s="13">
-        <v>0.67946994216795187</v>
+        <v>0.33973497108397593</v>
       </c>
       <c r="C23" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>30</v>
       </c>
       <c r="B24" s="13">
-        <v>1.1043385665873315</v>
+        <v>0.44173542663493259</v>
       </c>
       <c r="C24" s="13">
-        <v>2.7964386303494061E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.8642924202329374E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>32</v>
       </c>
       <c r="B25" s="13">
-        <v>0.87022574507376682</v>
+        <v>0.43511287253688341</v>
       </c>
       <c r="C25" s="13">
-        <v>6.6294650033929411E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.4196433355952941E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>34</v>
       </c>
       <c r="B26" s="13">
-        <v>0.74207133827739613</v>
+        <v>0.37103566913869807</v>
       </c>
       <c r="C26" s="13">
-        <v>7.4152796647535518E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.9435197765023677E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>36</v>
       </c>
       <c r="B27" s="13">
-        <v>0.54386198680841535</v>
+        <v>0.27193099340420768</v>
       </c>
       <c r="C27" s="13">
-        <v>8.810249011687292E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.8734993411248611E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>0.39173186466140381</v>
+        <v>0.1958659323307019</v>
       </c>
       <c r="C28" s="13">
-        <v>0.12695994018494869</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.4639960123299121E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>40</v>
       </c>
       <c r="B29" s="13">
-        <v>0.28643590682232317</v>
+        <v>0.14321795341116159</v>
       </c>
       <c r="C29" s="13">
-        <v>0.21618512145842311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.1441234143056154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45</v>
       </c>
       <c r="B30" s="13">
-        <v>2.1032668368777045E-2</v>
+        <v>1.0516334184388522E-2</v>
       </c>
       <c r="C30" s="13">
-        <v>0.24363967763764868</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.16242645175843246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>50</v>
       </c>
       <c r="B31" s="13">
-        <v>1.3147209136842052E-2</v>
+        <v>6.5736045684210258E-3</v>
       </c>
       <c r="C31" s="13">
-        <v>0.39119273041428582</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.26079515360952388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>55</v>
       </c>
       <c r="B32" s="13">
-        <v>1.2983438248491876E-2</v>
+        <v>6.4917191242459382E-3</v>
       </c>
       <c r="C32" s="13">
-        <v>0.39525546730853089</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.26350364487235395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>60</v>
       </c>
       <c r="B33" s="13">
-        <v>9.085338016968569E-3</v>
+        <v>4.5426690084842845E-3</v>
       </c>
       <c r="C33" s="13">
-        <v>0.32095123597061864</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.21396749064707909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>65</v>
       </c>
       <c r="B34" s="13">
-        <v>3.8012318799818755E-3</v>
+        <v>1.9006159399909378E-3</v>
       </c>
       <c r="C34" s="13">
-        <v>0.26408983311569095</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.17605988874379397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>70</v>
       </c>
       <c r="B35" s="13">
-        <v>2.7550583565683941E-3</v>
+        <v>1.377529178284197E-3</v>
       </c>
       <c r="C35" s="13">
-        <v>0.19241623670923058</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.12827749113948705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>75</v>
       </c>
       <c r="B36" s="13">
-        <v>2.0916356767665947E-3</v>
+        <v>1.0458178383832973E-3</v>
       </c>
       <c r="C36" s="13">
-        <v>0.14596063748682575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.7307091657883829E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>80</v>
       </c>
       <c r="B37" s="13">
-        <v>1.621446029274989E-3</v>
+        <v>8.1072301463749451E-4</v>
       </c>
       <c r="C37" s="13">
-        <v>0.1064161994512188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.0944132967479201E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>85</v>
       </c>
       <c r="B38" s="13">
-        <v>1.2269290210151938E-3</v>
+        <v>6.134645105075969E-4</v>
       </c>
       <c r="C38" s="13">
-        <v>8.0296232357905506E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.3530821571937004E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>90</v>
       </c>
       <c r="B39" s="13">
-        <v>9.1018501103405907E-4</v>
+        <v>4.5509250551702954E-4</v>
       </c>
       <c r="C39" s="13">
-        <v>5.7255112305429179E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.8170074870286119E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>105</v>
       </c>
       <c r="B40" s="13">
-        <v>8.6458463241987835E-4</v>
+        <v>4.3229231620993917E-4</v>
       </c>
       <c r="C40" s="13">
-        <v>2.1300333340226015E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.4200222226817343E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>120</v>
       </c>
       <c r="B41" s="13">
-        <v>8.8210147109614087E-4</v>
+        <v>4.4105073554807044E-4</v>
       </c>
       <c r="C41" s="13">
-        <v>6.3700414746776252E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.2466943164517499E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>135</v>
       </c>
       <c r="B42" s="13">
-        <v>5.2917105271575509E-4</v>
+        <v>2.6458552635787755E-4</v>
       </c>
       <c r="C42" s="13">
-        <v>1.9541090957262666E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.3027393971508444E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>150</v>
       </c>
       <c r="B43" s="13">
-        <v>2.5163287952878694E-4</v>
+        <v>1.2581643976439347E-4</v>
       </c>
       <c r="C43" s="13">
-        <v>1.2088637187693337E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.0590914584622241E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>165</v>
       </c>
       <c r="B44" s="13">
-        <v>8.521823887031885E-4</v>
+        <v>4.2609119435159425E-4</v>
       </c>
       <c r="C44" s="13">
-        <v>2.6978055516492087E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.7985370344328058E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>180</v>
       </c>
       <c r="B45" s="13">
-        <v>8.3496152151189612E-4</v>
+        <v>4.1748076075594806E-4</v>
       </c>
       <c r="C45" s="13">
-        <v>1.6185187581296636E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>1.0790125054197758E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
